--- a/LGC_Motiv_results/study1/nutrition/calories_scoring.xlsx
+++ b/LGC_Motiv_results/study1/nutrition/calories_scoring.xlsx
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2078.74565</v>
+        <v>14822.775</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4118.615275</v>
+        <v>16183.375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1749.9164875</v>
+        <v>7787.27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4143.025449999999</v>
+        <v>10120.265</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2117.096375</v>
+        <v>12770.29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1109.295</v>
+        <v>10594.15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3715.251</v>
+        <v>15505.735</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2384.016825</v>
+        <v>12739.375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>909.4963750000001</v>
+        <v>13429.1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -702,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7807.714524999999</v>
+        <v>23022.79</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1975.3740125</v>
+        <v>12174.515</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -718,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1843.2231625</v>
+        <v>10593.61</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1730.880275</v>
+        <v>10901.225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>980.0959250000001</v>
+        <v>7033.235000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2158.266450000001</v>
+        <v>15737.085</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5354.64415</v>
+        <v>18498.915</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3182.380075</v>
+        <v>18643.575</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5251.4052775</v>
+        <v>21642.04</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -774,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2398.742975</v>
+        <v>11046.62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2299.9081</v>
+        <v>7348.895</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -790,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2012.72125</v>
+        <v>11146.28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -798,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1705.520375</v>
+        <v>7108.69</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>4777.346549999998</v>
+        <v>15275.505</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -814,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>4641.48445</v>
+        <v>12856.035</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2036.8747625</v>
+        <v>7911.139999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>4180.225237500001</v>
+        <v>11480.08</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2761.7004375</v>
+        <v>11647.46</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3336.202424999999</v>
+        <v>12682.465</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -854,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>5861.0915625</v>
+        <v>24457.385</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2538.68093</v>
+        <v>14881</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1262.318025</v>
+        <v>6648.7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1512.793025</v>
+        <v>13227.545</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -886,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1169.129325</v>
+        <v>9878.459999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1020.522175</v>
+        <v>11863.175</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -902,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1610.9453375</v>
+        <v>7092.425</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -910,7 +910,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1822.2918125</v>
+        <v>10446.95</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>14564.848625</v>
+        <v>40740.27</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -926,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>3142.87465</v>
+        <v>11898.695</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2273.51565</v>
+        <v>6557.974999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>5630.307475</v>
+        <v>15256.83</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1800.4042</v>
+        <v>11579.28</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -958,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2080.966400000001</v>
+        <v>10738.27</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -966,7 +966,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>848.2669525</v>
+        <v>13330.395</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -974,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1589.781725</v>
+        <v>10572.55</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -982,7 +982,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>6338.5961375</v>
+        <v>16521.335</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -990,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2656.541500000001</v>
+        <v>12857.965</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -998,7 +998,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>182.989025</v>
+        <v>4301.77</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3101.446</v>
+        <v>14503.91</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1288.4475</v>
+        <v>6096.920000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3575.705525</v>
+        <v>11006.865</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1929.8826125</v>
+        <v>7935.965</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1755.4742875</v>
+        <v>6112.22</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3281.118525</v>
+        <v>16366.12</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>7346.4769375</v>
+        <v>16703.545</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1502.005525</v>
+        <v>8268.924999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1912.8757625</v>
+        <v>9782.84</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>4406.4275625</v>
+        <v>16606.66</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>2796.48885</v>
+        <v>9468.219999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>2047.159075</v>
+        <v>8930.870000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>3540.057450000001</v>
+        <v>13431.95</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>4041.7904125</v>
+        <v>12638.53</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>3315.307725000001</v>
+        <v>9874.15</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>759.449225</v>
+        <v>10140.02</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4123.911515</v>
+        <v>15097.305</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>2897.947225</v>
+        <v>9229.500000000002</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>3024.8027875</v>
+        <v>11720.15</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>3405.540302500001</v>
+        <v>14485.04</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>371.99915</v>
+        <v>7233.25</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>1039.713875</v>
+        <v>7915.825</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>2919.3350375</v>
+        <v>11342.025</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>1929.595375</v>
+        <v>8662.519999999999</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>594.9452375000002</v>
+        <v>11019.945</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>2261.523015</v>
+        <v>12880.695</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1476.84085</v>
+        <v>11153.655</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>2093.476900000001</v>
+        <v>9603.295</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>3098.669525000001</v>
+        <v>17400.41</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>2168.95195</v>
+        <v>10517.42</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>1708.702065</v>
+        <v>15297.725</v>
       </c>
     </row>
   </sheetData>
